--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1393.702630895355</v>
+        <v>147.8026809017531</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.04895260151504</v>
+        <v>45.80268090175315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.05423457347752</v>
+        <v>3.966330293861065</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.957912867326331</v>
+        <v>3.966330293861065</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1045.959999999991</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>314.79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,20 +620,9 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.4133528177202</v>
+        <v>37.15891053163818</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.48909622152298</v>
+        <v>37.16435621671619</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.09904380198282</v>
+        <v>41.8446015159008</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.98279108423719</v>
+        <v>42.12226908404252</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +990,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1015,7 +1004,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -1029,7 +1018,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
@@ -1043,99 +1032,15 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>171.41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>166.185</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>173.07</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>169.315</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>236.5699999999991</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>234.4299999999992</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>220.0849999999991</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>235.9099999999991</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>237.7799999999991</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42000000000051</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>155.515</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>151.33</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>152.085</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>159.67</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>160.06</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>171.41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>166.185</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>173.07</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>169.315</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>236.5699999999991</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>234.4299999999992</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>220.0849999999991</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>235.9099999999991</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>237.7799999999991</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.40999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19.31499999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>86.56999999999914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>84.42999999999915</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>70.08499999999913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>85.90999999999914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>87.77999999999912</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2026,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2037,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,133 +2048,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
